--- a/sodochucnang.xlsx
+++ b/sodochucnang.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Khách sạn mini</t>
   </si>
@@ -219,13 +214,31 @@
   </si>
   <si>
     <t>Bằng tiền mặt hoặc quẹt thẻ ATM, hoặc chuyển khoản</t>
+  </si>
+  <si>
+    <t>Kiểm tra phòng</t>
+  </si>
+  <si>
+    <t>Khắc phục</t>
+  </si>
+  <si>
+    <t>Quản lý nhân viên</t>
+  </si>
+  <si>
+    <t>Chức vụ</t>
+  </si>
+  <si>
+    <t>Chấm công</t>
+  </si>
+  <si>
+    <t>Lịch làm việc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -586,47 +599,47 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1466,6 +1479,226 @@
         <a:xfrm>
           <a:off x="6962775" y="9563100"/>
           <a:ext cx="630011" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1306285</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>244928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>582385</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>244929</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10409464" y="9742714"/>
+          <a:ext cx="609600" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3782786" y="11702143"/>
+          <a:ext cx="2354035" cy="6871607"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7048500" y="18342429"/>
+          <a:ext cx="625929" cy="204109"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="18913931"/>
+          <a:ext cx="625929" cy="408212"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>353785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6096000" y="18900321"/>
+          <a:ext cx="1592036" cy="979715"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1534,7 +1767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1569,7 +1802,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1746,21 +1979,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="56.7109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" style="3" customWidth="1"/>
@@ -1779,584 +2012,590 @@
     <col min="18" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18.75">
       <c r="A1" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="18.75">
       <c r="A2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="18.75">
       <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="18.75">
       <c r="A4" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18.75">
       <c r="A7" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="18.75">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="B10" s="18"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="20" t="s">
+    <row r="11" spans="1:15">
+      <c r="B11" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="24" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="33"/>
+      <c r="C12" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="28" t="s">
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="20"/>
-      <c r="C14" s="24" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" ht="30.75" customHeight="1">
+      <c r="B14" s="33"/>
+      <c r="C14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="29" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="B15" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="28" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="B16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+    </row>
+    <row r="17" spans="2:14">
       <c r="B17" s="19"/>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="32"/>
-    </row>
-    <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
+    </row>
+    <row r="18" spans="2:14" ht="33" customHeight="1">
       <c r="B18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="29" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="29"/>
-    </row>
-    <row r="19" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21" t="s">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B19" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="28" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="24"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B20" s="26"/>
+      <c r="C20" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="28" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="22"/>
-      <c r="C21" s="24" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B21" s="27"/>
+      <c r="C21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="28" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.75" customHeight="1">
       <c r="B22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="28" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-    </row>
-    <row r="24" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-    </row>
-    <row r="25" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="27"/>
-    </row>
-    <row r="27" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-    </row>
-    <row r="28" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="27"/>
-      <c r="N28" s="27"/>
-    </row>
-    <row r="29" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-    </row>
-    <row r="30" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-    </row>
-    <row r="31" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-    </row>
-    <row r="32" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="27"/>
-    </row>
-    <row r="33" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-    </row>
-    <row r="34" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="27"/>
-    </row>
-    <row r="35" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="27"/>
-    </row>
-    <row r="39" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="25"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+    </row>
+    <row r="30" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+    </row>
+    <row r="32" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+    </row>
+    <row r="33" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+    </row>
+    <row r="38" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+    </row>
+    <row r="39" spans="2:14" ht="15.75" customHeight="1">
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" s="11"/>
       <c r="C40" s="16"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14">
       <c r="I41" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" ht="31.5">
       <c r="G42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="K42" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="47.25">
       <c r="E43" s="8" t="s">
         <v>1</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K43" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" ht="31.5">
       <c r="G45" s="2" t="s">
         <v>3</v>
       </c>
@@ -2364,27 +2603,27 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="47.25">
       <c r="I46" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14">
       <c r="B48" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="5:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:13" ht="31.5">
       <c r="K49" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="5:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:13" ht="29.25" customHeight="1">
       <c r="K50" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:13">
       <c r="I51" s="6" t="s">
         <v>11</v>
       </c>
@@ -2392,17 +2631,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:13">
       <c r="K52" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="5:13" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:13" ht="42" customHeight="1">
       <c r="G53" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:13">
       <c r="K55" s="7" t="s">
         <v>16</v>
       </c>
@@ -2410,17 +2649,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="5:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:13" ht="49.5" customHeight="1">
       <c r="M56" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:13">
       <c r="I57" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="5:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:13" ht="31.5">
       <c r="E58" s="9" t="s">
         <v>9</v>
       </c>
@@ -2431,15 +2670,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="5:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:13" ht="31.5">
       <c r="M59" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:13">
       <c r="M60" s="11"/>
     </row>
-    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:13">
       <c r="K61" s="7" t="s">
         <v>18</v>
       </c>
@@ -2447,7 +2686,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="5:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:13" ht="39.75" customHeight="1">
       <c r="K63" s="7" t="s">
         <v>29</v>
       </c>
@@ -2455,17 +2694,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:13">
       <c r="I64" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:9">
       <c r="I65" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="7:9" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:9" ht="28.5">
       <c r="G66" s="1" t="s">
         <v>19</v>
       </c>
@@ -2473,20 +2712,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:9">
       <c r="I67" s="10" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="72" spans="5:9">
+      <c r="G72" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" ht="28.5">
+      <c r="E73" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" ht="30.75" customHeight="1">
+      <c r="G74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" ht="28.5">
+      <c r="G76" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C21:I21"/>
-    <mergeCell ref="J21:N21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="C10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="C12:I12"/>
+    <mergeCell ref="J11:N11"/>
+    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="J13:N13"/>
+    <mergeCell ref="J14:N14"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="J16:N16"/>
     <mergeCell ref="J17:N17"/>
     <mergeCell ref="C20:I20"/>
@@ -2497,18 +2761,13 @@
     <mergeCell ref="C17:I17"/>
     <mergeCell ref="C18:I18"/>
     <mergeCell ref="J18:N18"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="J13:N13"/>
-    <mergeCell ref="J14:N14"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="C12:I12"/>
-    <mergeCell ref="J11:N11"/>
-    <mergeCell ref="J12:N12"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="J21:N21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="J22:N22"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="J19:N19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
